--- a/aapl_prices_2011_12.xlsx
+++ b/aapl_prices_2011_12.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="aapl_prices_2011_12.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +56,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +100,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,8 +424,8 @@
         <v>4</v>
       </c>
       <c r="F2" s="3">
-        <f>AVERAGE(C2:C22)</f>
-        <v>2.1094666694397488E-3</v>
+        <f>AVERAGE(C3:C22)</f>
+        <v>2.2149400029117363E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -443,8 +443,8 @@
         <v>5</v>
       </c>
       <c r="F3" s="3">
-        <f>STDEV(C2:C22)</f>
-        <v>1.096384882046747E-2</v>
+        <f>STDEV(C3:C22)</f>
+        <v>1.1237735483277963E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -463,7 +463,7 @@
       </c>
       <c r="F4" s="3">
         <f>SQRT(250)*(F2/F3)</f>
-        <v>3.0421430616528196</v>
+        <v>3.116399785456589</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
